--- a/Schema v1.xlsx
+++ b/Schema v1.xlsx
@@ -141,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="00"/>
+    <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -690,9 +690,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1020,7 +1020,7 @@
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
